--- a/medicine/Nettoyage et hygiène/Canard-WC/Canard-WC.xlsx
+++ b/medicine/Nettoyage et hygiène/Canard-WC/Canard-WC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canard-WC est une marque de produits d'entretien pour les toilettes produite par la société S. C. Johnson. La marque a été déposée en février 1981[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canard-WC est une marque de produits d'entretien pour les toilettes produite par la société S. C. Johnson. La marque a été déposée en février 1981.
 L'origine du nom vient du fait que le haut du flacon avait une forme de bec afin de déposer le produit nettoyant sous le bord des toilettes.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Slogans</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien slogan : « encore une victoire de canard ».
 Le dernier slogan publicitaire est « C'est pas sorcier, compter sur Canard ! ».
